--- a/Documents/RR/ExternalDocuments/PianoDiProgetto/preventivi/preventivo - riepilogo - totali.xlsx
+++ b/Documents/RR/ExternalDocuments/PianoDiProgetto/preventivi/preventivo - riepilogo - totali.xlsx
@@ -591,13 +591,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>24</c:v>
@@ -815,13 +815,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>22</c:v>
@@ -1073,11 +1073,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="98851832"/>
-        <c:axId val="125995976"/>
+        <c:axId val="278705552"/>
+        <c:axId val="278707512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98851832"/>
+        <c:axId val="278705552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,7 +1120,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125995976"/>
+        <c:crossAx val="278707512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1128,7 +1128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125995976"/>
+        <c:axId val="278707512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,7 +1179,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98851832"/>
+        <c:crossAx val="278705552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1644,13 +1644,13 @@
                   <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>243</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>111</c:v>
@@ -2186,13 +2186,13 @@
                   <c:v>3120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2140</c:v>
+                  <c:v>2640</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4576</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6075</c:v>
+                  <c:v>5450</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1665</c:v>
@@ -2587,13 +2587,13 @@
                         <c:v>104</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>107</c:v>
+                        <c:v>132</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>208</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>243</c:v>
+                        <c:v>218</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>111</c:v>
@@ -4720,7 +4720,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4768,13 +4768,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="15">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D2" s="5">
         <v>17</v>
       </c>
       <c r="E2" s="15">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F2" s="5">
         <v>9</v>
@@ -4822,13 +4822,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="15">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D4" s="5">
         <v>30</v>
       </c>
       <c r="E4" s="15">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F4" s="5">
         <v>9</v>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="C9" s="17">
         <f t="shared" ref="C9:G9" si="1">C2+C3+C4+C6+C5+C7+C8</f>
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="1"/>
@@ -4967,7 +4967,7 @@
       </c>
       <c r="E9" s="17">
         <f t="shared" si="1"/>
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="1"/>
@@ -5015,11 +5015,11 @@
       </c>
       <c r="B18" s="16">
         <f>C9</f>
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="C18" s="23">
         <f>B18*20</f>
-        <v>2140</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -5041,11 +5041,11 @@
       </c>
       <c r="B20" s="16">
         <f>E9</f>
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="C20" s="23">
         <f>B20*25</f>
-        <v>6075</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5084,7 +5084,7 @@
       </c>
       <c r="C23" s="24">
         <f>C17+C18+C19+C20+C21+C22</f>
-        <v>21956</v>
+        <v>21831</v>
       </c>
     </row>
     <row r="33" spans="10:10" x14ac:dyDescent="0.25">
